--- a/DataAnalysis/Consolidation1_231101/compressionSummaryData_Consolidation1.xlsx
+++ b/DataAnalysis/Consolidation1_231101/compressionSummaryData_Consolidation1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/CS201 DSA/Project/dsa_treebasedimagecompression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/CS201 DSA/Project/dsa_treebasedimagecompression/DataAnalysis/Consolidation1_231101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAC3EFF-D2AA-9C48-988B-29BD93EE6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4504962-6C5F-714E-A99B-95AB2A2D5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compressionSummaryData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TestID</t>
   </si>
@@ -71,12 +71,21 @@
   </si>
   <si>
     <t>test_20231101_191957</t>
+  </si>
+  <si>
+    <t>Score (Compression Rate)</t>
+  </si>
+  <si>
+    <t>Score (File Size Difference)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -554,8 +563,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,11 +920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,9 +940,11 @@
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.1640625" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +975,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -992,11 +1010,11 @@
       <c r="I2">
         <v>120</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1024,11 +1042,11 @@
       <c r="I3">
         <v>130</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1056,11 +1074,11 @@
       <c r="I4">
         <v>110</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1088,11 +1106,11 @@
       <c r="I5">
         <v>128</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1120,11 +1138,11 @@
       <c r="I6">
         <v>128</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1152,11 +1170,11 @@
       <c r="I7">
         <v>128</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1184,11 +1202,11 @@
       <c r="I8">
         <v>133</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1216,11 +1234,11 @@
       <c r="I9">
         <v>136</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1248,11 +1266,11 @@
       <c r="I10">
         <v>135</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1280,11 +1298,11 @@
       <c r="I11">
         <v>135</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1312,11 +1330,11 @@
       <c r="I12">
         <v>136</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1362,7 @@
       <c r="I13">
         <v>135</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1.55E-4</v>
       </c>
     </row>
